--- a/reports/gridsearch_spambase/metrics.xlsx
+++ b/reports/gridsearch_spambase/metrics.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -130,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +420,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DT</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DT_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DT_GAN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DT_SMOTE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LR_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LR_GAN</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LR_SMOTE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RF_BrdSMOTE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RF_GAN</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RF_SMOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01282455733292399</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01832451676882235</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01326359625312346</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.007537966836491149</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0160088570879885</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.008026519181393436</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.01076840257267801</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.009512585468693512</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0049759497751016</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.006817859345065688</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.009482429811087018</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.005700602075148545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/reports/gridsearch_spambase/metrics.xlsx
+++ b/reports/gridsearch_spambase/metrics.xlsx
@@ -1,37 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ml\xgboost-main\reports\gridsearch_spambase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16950"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>DT_BrdSMOTE</t>
+  </si>
+  <si>
+    <t>DT_GAN</t>
+  </si>
+  <si>
+    <t>DT_SMOTE</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LR_BrdSMOTE</t>
+  </si>
+  <si>
+    <t>LR_GAN</t>
+  </si>
+  <si>
+    <t>LR_SMOTE</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>RF_BrdSMOTE</t>
+  </si>
+  <si>
+    <t>RF_GAN</t>
+  </si>
+  <si>
+    <t>RF_SMOTE</t>
+  </si>
+  <si>
+    <t>XGB</t>
+  </si>
+  <si>
+    <t>XGB_BrdSMOTE</t>
+  </si>
+  <si>
+    <t>XGB_GAN</t>
+  </si>
+  <si>
+    <t>XGB_RF</t>
+  </si>
+  <si>
+    <t>XGB_RF_BrdSMOTE</t>
+  </si>
+  <si>
+    <t>XGB_RF_GAN</t>
+  </si>
+  <si>
+    <t>XGB_RF_SMOTE</t>
+  </si>
+  <si>
+    <t>XGB_SMOTE</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +132,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,127 +456,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DT</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DT_BrdSMOTE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DT_GAN</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DT_SMOTE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>LR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>LR_BrdSMOTE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>LR_GAN</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>LR_SMOTE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RF_BrdSMOTE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>RF_GAN</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>RF_SMOTE</t>
-        </is>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.01282455733292399</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.01832451676882235</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01326359625312346</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.007537966836491149</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0160088570879885</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.008026519181393436</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.01076840257267801</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.009512585468693512</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0049759497751016</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.006817859345065688</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.009482429811087018</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.005700602075148545</v>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1.209733401989248E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.2939640317033995E-3</v>
+      </c>
+      <c r="D2">
+        <v>3.1804436790836457E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.6312203838330461E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.0721197193485819E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.363313782951666E-2</v>
+      </c>
+      <c r="H2">
+        <v>2.9335101613197179E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.5308216599758071E-2</v>
+      </c>
+      <c r="J2">
+        <v>7.2828021957269586E-3</v>
+      </c>
+      <c r="K2">
+        <v>1.132394271732925E-2</v>
+      </c>
+      <c r="L2">
+        <v>2.3087201478569689E-2</v>
+      </c>
+      <c r="M2">
+        <v>1.6534713044657021E-2</v>
+      </c>
+      <c r="N2">
+        <v>7.0474730544571717E-3</v>
+      </c>
+      <c r="O2">
+        <v>1.320219704797029E-2</v>
+      </c>
+      <c r="P2">
+        <v>1.513704202080279E-2</v>
+      </c>
+      <c r="Q2">
+        <v>1.0490418652748849E-2</v>
+      </c>
+      <c r="R2">
+        <v>8.0383352555999706E-3</v>
+      </c>
+      <c r="S2">
+        <v>2.5318040847976411E-2</v>
+      </c>
+      <c r="T2">
+        <v>1.519701459194822E-2</v>
+      </c>
+      <c r="U2">
+        <v>1.442343958104896E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1.4638107944455501E-2</v>
+      </c>
+      <c r="C3">
+        <v>8.5540912690239366E-3</v>
+      </c>
+      <c r="D3">
+        <v>2.4964958381944881E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.7014320178613911E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.363955913200815E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.3527807730469989E-2</v>
+      </c>
+      <c r="H3">
+        <v>3.1198931386450399E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.570083249595431E-2</v>
+      </c>
+      <c r="J3">
+        <v>9.0243259599627548E-3</v>
+      </c>
+      <c r="K3">
+        <v>1.1531493973592259E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.4069970903875939E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.7062379973240449E-2</v>
+      </c>
+      <c r="N3">
+        <v>8.9787403900670557E-3</v>
+      </c>
+      <c r="O3">
+        <v>1.313673673870012E-2</v>
+      </c>
+      <c r="P3">
+        <v>1.560098827116182E-2</v>
+      </c>
+      <c r="Q3">
+        <v>9.8174367937841796E-3</v>
+      </c>
+      <c r="R3">
+        <v>8.5421769587230856E-3</v>
+      </c>
+      <c r="S3">
+        <v>2.6206680806441E-2</v>
+      </c>
+      <c r="T3">
+        <v>1.561478654572788E-2</v>
+      </c>
+      <c r="U3">
+        <v>1.452955694049695E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>3.0725957810709161E-2</v>
+      </c>
+      <c r="C4">
+        <v>1.5372343236417349E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.1354500721641311E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.1123664570203379E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.5832157620153671E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.622404055284565E-2</v>
+      </c>
+      <c r="H4">
+        <v>9.3046999045880794E-3</v>
+      </c>
+      <c r="I4">
+        <v>1.209273511654501E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.204071579097828E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.16570737891608E-2</v>
+      </c>
+      <c r="L4">
+        <v>5.729859508487819E-3</v>
+      </c>
+      <c r="M4">
+        <v>1.182928446364632E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.7501425257813171E-2</v>
+      </c>
+      <c r="O4">
+        <v>1.201234826362753E-2</v>
+      </c>
+      <c r="P4">
+        <v>8.0065424070947296E-3</v>
+      </c>
+      <c r="Q4">
+        <v>2.8950192573468241E-2</v>
+      </c>
+      <c r="R4">
+        <v>1.341785338093489E-2</v>
+      </c>
+      <c r="S4">
+        <v>1.9451083693866909E-2</v>
+      </c>
+      <c r="T4">
+        <v>1.6154784726122289E-2</v>
+      </c>
+      <c r="U4">
+        <v>1.2088303706545841E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1.2046744934069761E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.370279244837715E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.0867042835149588E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.8161975217564389E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.0026870642429879E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.4700810889354109E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.3843123745179161E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.0311346989592409E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.2518661102168319E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.7186323286236441E-2</v>
+      </c>
+      <c r="L5">
+        <v>4.0379575210224471E-2</v>
+      </c>
+      <c r="M5">
+        <v>2.5532050996023521E-2</v>
+      </c>
+      <c r="N5">
+        <v>1.3209795023747939E-2</v>
+      </c>
+      <c r="O5">
+        <v>1.2025736745499369E-2</v>
+      </c>
+      <c r="P5">
+        <v>2.791011782972554E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.6889921905991801E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.432047944797964E-2</v>
+      </c>
+      <c r="S5">
+        <v>4.3644935966074418E-2</v>
+      </c>
+      <c r="T5">
+        <v>2.6759583996844191E-2</v>
+      </c>
+      <c r="U5">
+        <v>1.866230890887342E-2</v>
       </c>
     </row>
   </sheetData>
